--- a/Output/productivity_TL_May.xlsx
+++ b/Output/productivity_TL_May.xlsx
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="S2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2">
-        <v>0.1</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T5">
-        <v>0.08333333333333333</v>
+        <v>0.2096774193548387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13">
-        <v>0.0945945945945946</v>
+        <v>0.2133333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1549,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T15">
-        <v>0.0975609756097561</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S17">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T17">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S23">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23">
-        <v>0.08888888888888889</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24">
-        <v>0.09615384615384616</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T31">
-        <v>0.07462686567164178</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S35">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T35">
-        <v>0.08196721311475409</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S36">
         <v>68</v>
       </c>
       <c r="T36">
-        <v>0.08823529411764706</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3142,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S42">
         <v>66</v>
       </c>
       <c r="T42">
-        <v>0.04545454545454546</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S43">
         <v>68</v>
       </c>
       <c r="T43">
-        <v>0.04411764705882353</v>
+        <v>0.2205882352941176</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S44">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T44">
-        <v>0.0625</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3732,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S52">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T52">
-        <v>0.04838709677419355</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3850,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S54">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T54">
-        <v>0.07352941176470588</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4145,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S59">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T59">
-        <v>0.05633802816901409</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4204,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S60">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T60">
-        <v>0.1463414634146341</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S71">
         <v>57</v>
       </c>
       <c r="T71">
-        <v>0.05263157894736842</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5148,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S76">
         <v>48</v>
       </c>
       <c r="T76">
-        <v>0.0625</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5207,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S77">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T77">
-        <v>0.02564102564102564</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5384,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S80">
         <v>29</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5443,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>14</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5620,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T84">
-        <v>0.02631578947368421</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5738,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S86">
         <v>51</v>
       </c>
       <c r="T86">
-        <v>0.07843137254901961</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6269,13 +6269,13 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S95">
         <v>33</v>
       </c>
       <c r="T95">
-        <v>0.06060606060606061</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6564,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S100">
         <v>27</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S101">
         <v>27</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -6859,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S105">
         <v>38</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -6918,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S106">
         <v>22</v>
       </c>
       <c r="T106">
-        <v>0.04545454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7036,13 +7036,13 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S108">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T108">
-        <v>0.08888888888888889</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7567,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S117">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117">
-        <v>0.1403508771929824</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -7862,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S122">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T122">
-        <v>0.1320754716981132</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -7921,13 +7921,13 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S123">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T123">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8334,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S130">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T130">
-        <v>0.1304347826086956</v>
+        <v>0.2553191489361702</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -8570,13 +8570,13 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S134">
         <v>70</v>
       </c>
       <c r="T134">
-        <v>0.07142857142857142</v>
+        <v>0.1571428571428571</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -8629,13 +8629,13 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S135">
         <v>59</v>
       </c>
       <c r="T135">
-        <v>0.0847457627118644</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="R140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S140">
         <v>18</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -8983,13 +8983,13 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S141">
         <v>18</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9160,13 +9160,13 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S144">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T144">
-        <v>0.0625</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -9219,13 +9219,13 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S145">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T145">
-        <v>0.046875</v>
+        <v>0.2461538461538462</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -9750,13 +9750,13 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S154">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T154">
-        <v>0.07246376811594203</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -9868,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S156">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T156">
-        <v>0.06756756756756757</v>
+        <v>0.1466666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -10222,13 +10222,13 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S162">
         <v>70</v>
       </c>
       <c r="T162">
-        <v>0.04285714285714286</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -10281,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S163">
         <v>50</v>
       </c>
       <c r="T163">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -10753,13 +10753,13 @@
         <v>0</v>
       </c>
       <c r="R171">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S171">
         <v>61</v>
       </c>
       <c r="T171">
-        <v>0.01639344262295082</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11048,13 +11048,13 @@
         <v>0</v>
       </c>
       <c r="R176">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S176">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T176">
-        <v>0.01492537313432836</v>
+        <v>0.2205882352941176</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -11461,13 +11461,13 @@
         <v>0</v>
       </c>
       <c r="R183">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S183">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T183">
-        <v>0.05263157894736842</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -11520,13 +11520,13 @@
         <v>0</v>
       </c>
       <c r="R184">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S184">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T184">
-        <v>0.0625</v>
+        <v>0.163265306122449</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -12051,13 +12051,13 @@
         <v>0</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S193">
         <v>40</v>
       </c>
       <c r="T193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -12287,13 +12287,13 @@
         <v>0</v>
       </c>
       <c r="R197">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S197">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T197">
-        <v>0.09090909090909091</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -12346,13 +12346,13 @@
         <v>0</v>
       </c>
       <c r="R198">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S198">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T198">
-        <v>0.09375</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -12700,13 +12700,13 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S204">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T204">
-        <v>0.05263157894736842</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -12759,13 +12759,13 @@
         <v>0</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S205">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T205">
-        <v>0.04651162790697674</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -13113,13 +13113,13 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S211">
         <v>46</v>
       </c>
       <c r="T211">
-        <v>0.02173913043478261</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -13172,13 +13172,13 @@
         <v>0</v>
       </c>
       <c r="R212">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S212">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T212">
-        <v>0.07575757575757576</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -13467,13 +13467,13 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S217">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T217">
-        <v>0.05882352941176471</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -13821,13 +13821,13 @@
         <v>0</v>
       </c>
       <c r="R223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S223">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T223">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -13880,13 +13880,13 @@
         <v>0</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S224">
         <v>25</v>
       </c>
       <c r="T224">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -14293,13 +14293,13 @@
         <v>0</v>
       </c>
       <c r="R231">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S231">
         <v>31</v>
       </c>
       <c r="T231">
-        <v>0.09677419354838709</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -14470,13 +14470,13 @@
         <v>0</v>
       </c>
       <c r="R234">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S234">
         <v>31</v>
       </c>
       <c r="T234">
-        <v>0.03225806451612903</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -14529,13 +14529,13 @@
         <v>0</v>
       </c>
       <c r="R235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T235">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -14588,13 +14588,13 @@
         <v>0</v>
       </c>
       <c r="R236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S236">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T236">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -14765,13 +14765,13 @@
         <v>0</v>
       </c>
       <c r="R239">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S239">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T239">
-        <v>0.06578947368421052</v>
+        <v>0.1341463414634146</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -14824,13 +14824,13 @@
         <v>0</v>
       </c>
       <c r="R240">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S240">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T240">
-        <v>0.07042253521126761</v>
+        <v>0.1447368421052632</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -15178,13 +15178,13 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S246">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T246">
-        <v>0.05172413793103448</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -15355,13 +15355,13 @@
         <v>0</v>
       </c>
       <c r="R249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S249">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T249">
-        <v>0.05263157894736842</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -15473,13 +15473,13 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S251">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T251">
-        <v>0.0625</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -15532,13 +15532,13 @@
         <v>0</v>
       </c>
       <c r="R252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S252">
         <v>16</v>
       </c>
       <c r="T252">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -15591,13 +15591,13 @@
         <v>0</v>
       </c>
       <c r="R253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S253">
         <v>16</v>
       </c>
       <c r="T253">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -15709,13 +15709,13 @@
         <v>0</v>
       </c>
       <c r="R255">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S255">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T255">
-        <v>0.07843137254901961</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -15768,13 +15768,13 @@
         <v>0</v>
       </c>
       <c r="R256">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S256">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T256">
-        <v>0.05660377358490566</v>
+        <v>0.1296296296296296</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -16181,13 +16181,13 @@
         <v>0</v>
       </c>
       <c r="R263">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S263">
         <v>48</v>
       </c>
       <c r="T263">
-        <v>0.125</v>
+        <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -16476,13 +16476,13 @@
         <v>0</v>
       </c>
       <c r="R268">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S268">
         <v>31</v>
       </c>
       <c r="T268">
-        <v>0.1612903225806452</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -16535,13 +16535,13 @@
         <v>0</v>
       </c>
       <c r="R269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S269">
         <v>20</v>
       </c>
       <c r="T269">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -16594,13 +16594,13 @@
         <v>0</v>
       </c>
       <c r="R270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S270">
         <v>20</v>
       </c>
       <c r="T270">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -16712,13 +16712,13 @@
         <v>0</v>
       </c>
       <c r="R272">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S272">
         <v>74</v>
       </c>
       <c r="T272">
-        <v>0.01351351351351351</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -16771,13 +16771,13 @@
         <v>0</v>
       </c>
       <c r="R273">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S273">
         <v>51</v>
       </c>
       <c r="T273">
-        <v>0</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -17479,13 +17479,13 @@
         <v>0</v>
       </c>
       <c r="R285">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S285">
         <v>67</v>
       </c>
       <c r="T285">
-        <v>0.01492537313432836</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -17597,13 +17597,13 @@
         <v>0</v>
       </c>
       <c r="R287">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S287">
         <v>76</v>
       </c>
       <c r="T287">
-        <v>0.0131578947368421</v>
+        <v>0.1447368421052632</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -18187,13 +18187,13 @@
         <v>0</v>
       </c>
       <c r="R297">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S297">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T297">
-        <v>0.07792207792207792</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="298" spans="1:20">
@@ -18246,13 +18246,13 @@
         <v>0</v>
       </c>
       <c r="R298">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S298">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T298">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -18659,13 +18659,13 @@
         <v>0</v>
       </c>
       <c r="R305">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S305">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T305">
-        <v>0.0625</v>
+        <v>0.1846153846153846</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -19013,13 +19013,13 @@
         <v>0</v>
       </c>
       <c r="R311">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S311">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T311">
-        <v>0.0625</v>
+        <v>0.1846153846153846</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -19485,13 +19485,13 @@
         <v>0</v>
       </c>
       <c r="R319">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S319">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T319">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -19544,13 +19544,13 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S320">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T320">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="321" spans="1:20">
@@ -20252,13 +20252,13 @@
         <v>0</v>
       </c>
       <c r="R332">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S332">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T332">
-        <v>0.04918032786885246</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -20665,13 +20665,13 @@
         <v>0</v>
       </c>
       <c r="R339">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S339">
         <v>81</v>
       </c>
       <c r="T339">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="340" spans="1:20">
@@ -20724,13 +20724,13 @@
         <v>0</v>
       </c>
       <c r="R340">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S340">
         <v>81</v>
       </c>
       <c r="T340">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -21491,13 +21491,13 @@
         <v>0</v>
       </c>
       <c r="R353">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S353">
         <v>69</v>
       </c>
       <c r="T353">
-        <v>0.08695652173913043</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -21845,13 +21845,13 @@
         <v>0</v>
       </c>
       <c r="R359">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S359">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T359">
-        <v>0.09090909090909091</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -21904,13 +21904,13 @@
         <v>0</v>
       </c>
       <c r="R360">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S360">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T360">
-        <v>0.07692307692307693</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="361" spans="1:20">
@@ -22258,13 +22258,13 @@
         <v>0</v>
       </c>
       <c r="R366">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S366">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T366">
-        <v>0.05555555555555555</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -22435,13 +22435,13 @@
         <v>0</v>
       </c>
       <c r="R369">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S369">
         <v>49</v>
       </c>
       <c r="T369">
-        <v>0.1224489795918367</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="370" spans="1:20">
@@ -22494,13 +22494,13 @@
         <v>0</v>
       </c>
       <c r="R370">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S370">
         <v>46</v>
       </c>
       <c r="T370">
-        <v>0.1304347826086956</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="R371">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S371">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T371">
-        <v>0.125</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -22612,13 +22612,13 @@
         <v>0</v>
       </c>
       <c r="R372">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S372">
         <v>49</v>
       </c>
       <c r="T372">
-        <v>0.04081632653061224</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="373" spans="1:20">
@@ -22966,13 +22966,13 @@
         <v>0</v>
       </c>
       <c r="R378">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S378">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T378">
-        <v>0.1111111111111111</v>
+        <v>0.1636363636363636</v>
       </c>
     </row>
     <row r="379" spans="1:20">
@@ -23025,13 +23025,13 @@
         <v>0</v>
       </c>
       <c r="R379">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S379">
         <v>50</v>
       </c>
       <c r="T379">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="380" spans="1:20">
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="R384">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S384">
         <v>67</v>
       </c>
       <c r="T384">
-        <v>0.08955223880597014</v>
+        <v>0.208955223880597</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="R387">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S387">
         <v>65</v>
       </c>
       <c r="T387">
-        <v>0.1076923076923077</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -23615,13 +23615,13 @@
         <v>0</v>
       </c>
       <c r="R389">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S389">
         <v>70</v>
       </c>
       <c r="T389">
-        <v>0.08571428571428572</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="390" spans="1:20">
@@ -23674,13 +23674,13 @@
         <v>0</v>
       </c>
       <c r="R390">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S390">
         <v>47</v>
       </c>
       <c r="T390">
-        <v>0.0851063829787234</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -23910,13 +23910,13 @@
         <v>0</v>
       </c>
       <c r="R394">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S394">
         <v>19</v>
       </c>
       <c r="T394">
-        <v>0.1578947368421053</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="395" spans="1:20">
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="R396">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S396">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T396">
-        <v>0.08823529411764706</v>
+        <v>0.1571428571428571</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -24323,13 +24323,13 @@
         <v>0</v>
       </c>
       <c r="R401">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S401">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T401">
-        <v>0.02150537634408602</v>
+        <v>0.1382978723404255</v>
       </c>
     </row>
     <row r="402" spans="1:20">
@@ -24382,13 +24382,13 @@
         <v>0</v>
       </c>
       <c r="R402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S402">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T402">
-        <v>0.0196078431372549</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="403" spans="1:20">
@@ -24618,13 +24618,13 @@
         <v>0</v>
       </c>
       <c r="R406">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S406">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T406">
-        <v>0.05063291139240506</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="R408">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S408">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T408">
-        <v>0.05063291139240506</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="409" spans="1:20">
@@ -24913,13 +24913,13 @@
         <v>0</v>
       </c>
       <c r="R411">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S411">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T411">
-        <v>0.03703703703703703</v>
+        <v>0.1566265060240964</v>
       </c>
     </row>
     <row r="412" spans="1:20">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="R418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S418">
         <v>15</v>
       </c>
       <c r="T418">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="419" spans="1:20">
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="R420">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S420">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T420">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="421" spans="1:20">
@@ -25503,13 +25503,13 @@
         <v>0</v>
       </c>
       <c r="R421">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S421">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T421">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -26152,13 +26152,13 @@
         <v>0</v>
       </c>
       <c r="R432">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S432">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T432">
-        <v>0.05063291139240506</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="433" spans="1:20">
@@ -26506,13 +26506,13 @@
         <v>0</v>
       </c>
       <c r="R438">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S438">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T438">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -26565,13 +26565,13 @@
         <v>0</v>
       </c>
       <c r="R439">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S439">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T439">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -27155,13 +27155,13 @@
         <v>0</v>
       </c>
       <c r="R449">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S449">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T449">
-        <v>0.1346153846153846</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="450" spans="1:20">
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="R453">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S453">
         <v>14</v>
       </c>
       <c r="T453">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="454" spans="1:20">
@@ -27450,13 +27450,13 @@
         <v>0</v>
       </c>
       <c r="R454">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S454">
         <v>78</v>
       </c>
       <c r="T454">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="R455">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S455">
         <v>78</v>
       </c>
       <c r="T455">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="456" spans="1:20">
@@ -28335,13 +28335,13 @@
         <v>0</v>
       </c>
       <c r="R469">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S469">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T469">
-        <v>0.06944444444444445</v>
+        <v>0.1917808219178082</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -28748,13 +28748,13 @@
         <v>0</v>
       </c>
       <c r="R476">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S476">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T476">
-        <v>0.1333333333333333</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="R477">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S477">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T477">
-        <v>0.1333333333333333</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -29338,13 +29338,13 @@
         <v>0</v>
       </c>
       <c r="R486">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S486">
         <v>57</v>
       </c>
       <c r="T486">
-        <v>0.07017543859649122</v>
+        <v>0.1754385964912281</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -29574,13 +29574,13 @@
         <v>0</v>
       </c>
       <c r="R490">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S490">
         <v>47</v>
       </c>
       <c r="T490">
-        <v>0.02127659574468085</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="491" spans="1:20">
@@ -29692,13 +29692,13 @@
         <v>0</v>
       </c>
       <c r="R492">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S492">
         <v>48</v>
       </c>
       <c r="T492">
-        <v>0.08333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="493" spans="1:20">
@@ -29751,13 +29751,13 @@
         <v>0</v>
       </c>
       <c r="R493">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S493">
         <v>31</v>
       </c>
       <c r="T493">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="494" spans="1:20">
@@ -29928,13 +29928,13 @@
         <v>0</v>
       </c>
       <c r="R496">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S496">
         <v>43</v>
       </c>
       <c r="T496">
-        <v>0.02325581395348837</v>
+        <v>0.2093023255813954</v>
       </c>
     </row>
     <row r="497" spans="1:20">
@@ -30105,13 +30105,13 @@
         <v>0</v>
       </c>
       <c r="R499">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S499">
         <v>12</v>
       </c>
       <c r="T499">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="500" spans="1:20">
@@ -30164,13 +30164,13 @@
         <v>0</v>
       </c>
       <c r="R500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S500">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T500">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="501" spans="1:20">
@@ -30282,13 +30282,13 @@
         <v>0</v>
       </c>
       <c r="R502">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S502">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T502">
-        <v>0.08108108108108109</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="503" spans="1:20">
@@ -30400,13 +30400,13 @@
         <v>0</v>
       </c>
       <c r="R504">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S504">
         <v>62</v>
       </c>
       <c r="T504">
-        <v>0.08064516129032258</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="505" spans="1:20">
@@ -30577,13 +30577,13 @@
         <v>0</v>
       </c>
       <c r="R507">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S507">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T507">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="508" spans="1:20">
@@ -30754,13 +30754,13 @@
         <v>0</v>
       </c>
       <c r="R510">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S510">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T510">
-        <v>0.03125</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -30931,13 +30931,13 @@
         <v>0</v>
       </c>
       <c r="R513">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S513">
         <v>38</v>
       </c>
       <c r="T513">
-        <v>0.07894736842105263</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="514" spans="1:20">
@@ -30990,13 +30990,13 @@
         <v>0</v>
       </c>
       <c r="R514">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S514">
         <v>36</v>
       </c>
       <c r="T514">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="515" spans="1:20">
@@ -31049,13 +31049,13 @@
         <v>0</v>
       </c>
       <c r="R515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S515">
         <v>28</v>
       </c>
       <c r="T515">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="516" spans="1:20">
@@ -31108,13 +31108,13 @@
         <v>0</v>
       </c>
       <c r="R516">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S516">
         <v>36</v>
       </c>
       <c r="T516">
-        <v>0.08333333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
     </row>
     <row r="517" spans="1:20">
@@ -31226,13 +31226,13 @@
         <v>0</v>
       </c>
       <c r="R518">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S518">
         <v>39</v>
       </c>
       <c r="T518">
-        <v>0.07692307692307693</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="519" spans="1:20">
@@ -31344,13 +31344,13 @@
         <v>0</v>
       </c>
       <c r="R520">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S520">
         <v>19</v>
       </c>
       <c r="T520">
-        <v>0.1578947368421053</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="521" spans="1:20">
@@ -31462,13 +31462,13 @@
         <v>0</v>
       </c>
       <c r="R522">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="S522">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T522">
-        <v>0.07843137254901961</v>
+        <v>0.2019230769230769</v>
       </c>
     </row>
     <row r="523" spans="1:20">
@@ -31521,13 +31521,13 @@
         <v>0</v>
       </c>
       <c r="R523">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="S523">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T523">
-        <v>0.1046511627906977</v>
+        <v>0.247191011235955</v>
       </c>
     </row>
     <row r="524" spans="1:20">
@@ -31875,13 +31875,13 @@
         <v>0</v>
       </c>
       <c r="R529">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S529">
         <v>63</v>
       </c>
       <c r="T529">
-        <v>0.06349206349206349</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="530" spans="1:20">
@@ -32229,13 +32229,13 @@
         <v>0</v>
       </c>
       <c r="R535">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S535">
         <v>56</v>
       </c>
       <c r="T535">
-        <v>0.03571428571428571</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="536" spans="1:20">
@@ -32406,13 +32406,13 @@
         <v>0</v>
       </c>
       <c r="R538">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S538">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T538">
-        <v>0.03278688524590164</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="539" spans="1:20">
@@ -32524,13 +32524,13 @@
         <v>0</v>
       </c>
       <c r="R540">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S540">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T540">
-        <v>0</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="541" spans="1:20">
@@ -32819,13 +32819,13 @@
         <v>0</v>
       </c>
       <c r="R545">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S545">
         <v>64</v>
       </c>
       <c r="T545">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="546" spans="1:20">
@@ -33232,13 +33232,13 @@
         <v>0</v>
       </c>
       <c r="R552">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S552">
         <v>70</v>
       </c>
       <c r="T552">
-        <v>0.04285714285714286</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="553" spans="1:20">
@@ -33527,13 +33527,13 @@
         <v>0</v>
       </c>
       <c r="R557">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S557">
         <v>53</v>
       </c>
       <c r="T557">
-        <v>0.05660377358490566</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -33822,13 +33822,13 @@
         <v>0</v>
       </c>
       <c r="R562">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S562">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T562">
-        <v>0.07142857142857142</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="563" spans="1:20">
@@ -33881,13 +33881,13 @@
         <v>0</v>
       </c>
       <c r="R563">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S563">
         <v>52</v>
       </c>
       <c r="T563">
-        <v>0.03846153846153846</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -33999,13 +33999,13 @@
         <v>0</v>
       </c>
       <c r="R565">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S565">
         <v>40</v>
       </c>
       <c r="T565">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="566" spans="1:20">
@@ -34235,13 +34235,13 @@
         <v>0</v>
       </c>
       <c r="R569">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S569">
         <v>17</v>
       </c>
       <c r="T569">
-        <v>0.05882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -34294,13 +34294,13 @@
         <v>0</v>
       </c>
       <c r="R570">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S570">
         <v>17</v>
       </c>
       <c r="T570">
-        <v>0.05882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="571" spans="1:20">
@@ -34412,13 +34412,13 @@
         <v>0</v>
       </c>
       <c r="R572">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S572">
         <v>61</v>
       </c>
       <c r="T572">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="573" spans="1:20">
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R573">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S573">
         <v>61</v>
       </c>
       <c r="T573">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="574" spans="1:20">
@@ -35415,13 +35415,13 @@
         <v>0</v>
       </c>
       <c r="R589">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S589">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T589">
-        <v>0.08928571428571429</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -35474,13 +35474,13 @@
         <v>0</v>
       </c>
       <c r="R590">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S590">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T590">
-        <v>0.05263157894736842</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="591" spans="1:20">
@@ -36123,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="R601">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S601">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T601">
-        <v>0.1627906976744186</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="602" spans="1:20">
@@ -36418,13 +36418,13 @@
         <v>0</v>
       </c>
       <c r="R606">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S606">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T606">
-        <v>0.1020408163265306</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="607" spans="1:20">
@@ -36477,13 +36477,13 @@
         <v>0</v>
       </c>
       <c r="R607">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S607">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T607">
-        <v>0.1111111111111111</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="608" spans="1:20">
@@ -36536,13 +36536,13 @@
         <v>0</v>
       </c>
       <c r="R608">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S608">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T608">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="609" spans="1:20">
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="R609">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S609">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T609">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="610" spans="1:20">
@@ -37362,13 +37362,13 @@
         <v>0</v>
       </c>
       <c r="R622">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S622">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T622">
-        <v>0.01724137931034483</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="623" spans="1:20">
@@ -38483,13 +38483,13 @@
         <v>8.15</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <v>0.01886792452830189</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -38509,13 +38509,13 @@
         <v>6.55</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>22</v>
       </c>
       <c r="H30">
-        <v>0.04545454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -38535,13 +38535,13 @@
         <v>9.166666666666668</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G31">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31">
-        <v>0.1733333333333333</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -38561,13 +38561,13 @@
         <v>6.65</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>18</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -38587,13 +38587,13 @@
         <v>6.683333333333334</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -38613,13 +38613,13 @@
         <v>6.7</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -38639,13 +38639,13 @@
         <v>6.633333333333334</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
       <c r="H35">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -38665,13 +38665,13 @@
         <v>8.983333333333334</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>66</v>
       </c>
       <c r="H36">
-        <v>0.09090909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -38691,13 +38691,13 @@
         <v>7.550000000000001</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G37">
         <v>66</v>
       </c>
       <c r="H37">
-        <v>0.1060606060606061</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -38717,13 +38717,13 @@
         <v>6.583333333333333</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>15</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -38743,13 +38743,13 @@
         <v>5.683333333333333</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>0.06896551724137931</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -38769,13 +38769,13 @@
         <v>9.166666666666666</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>57</v>
       </c>
       <c r="H40">
-        <v>0.1052631578947368</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -38795,13 +38795,13 @@
         <v>7.45</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -38821,13 +38821,13 @@
         <v>10.41666666666667</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>69</v>
       </c>
       <c r="H42">
-        <v>0.04347826086956522</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -42123,13 +42123,13 @@
         <v>1.033333333333333</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G169">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>0.125</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -42149,13 +42149,13 @@
         <v>10.36666666666667</v>
       </c>
       <c r="F170">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G170">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H170">
-        <v>0.09917355371900827</v>
+        <v>0.1885245901639344</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -42175,13 +42175,13 @@
         <v>5.433333333333334</v>
       </c>
       <c r="F171">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G171">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H171">
-        <v>0.03846153846153846</v>
+        <v>0.1278195488721804</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -42201,13 +42201,13 @@
         <v>2.766666666666667</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G172">
         <v>47</v>
       </c>
       <c r="H172">
-        <v>0.02127659574468085</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -42227,13 +42227,13 @@
         <v>2.816666666666667</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G173">
         <v>36</v>
       </c>
       <c r="H173">
-        <v>0.08333333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -42253,13 +42253,13 @@
         <v>6.950000000000001</v>
       </c>
       <c r="F174">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G174">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H174">
-        <v>0.04838709677419355</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -42279,13 +42279,13 @@
         <v>4.3</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G175">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H175">
-        <v>0.04878048780487805</v>
+        <v>0.1325301204819277</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -42695,13 +42695,13 @@
         <v>11.4</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G191">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H191">
-        <v>0.0975609756097561</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -42721,13 +42721,13 @@
         <v>11.45</v>
       </c>
       <c r="F192">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G192">
         <v>68</v>
       </c>
       <c r="H192">
-        <v>0.08823529411764706</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -42747,13 +42747,13 @@
         <v>11.36666666666667</v>
       </c>
       <c r="F193">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G193">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H193">
-        <v>0.07352941176470588</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -42773,13 +42773,13 @@
         <v>11.23333333333333</v>
       </c>
       <c r="F194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G194">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H194">
-        <v>0.06756756756756757</v>
+        <v>0.1466666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -42799,13 +42799,13 @@
         <v>11.36666666666667</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G195">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H195">
-        <v>0.01492537313432836</v>
+        <v>0.2205882352941176</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -42825,13 +42825,13 @@
         <v>11.26666666666667</v>
       </c>
       <c r="F196">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H196">
-        <v>0.09090909090909091</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -42851,13 +42851,13 @@
         <v>11.36666666666667</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G197">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H197">
-        <v>0.05882352941176471</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -42877,13 +42877,13 @@
         <v>11.26666666666667</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G198">
         <v>76</v>
       </c>
       <c r="H198">
-        <v>0.0131578947368421</v>
+        <v>0.1447368421052632</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -42903,13 +42903,13 @@
         <v>11.25</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G199">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H199">
-        <v>0.0625</v>
+        <v>0.1846153846153846</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -42929,13 +42929,13 @@
         <v>11.25</v>
       </c>
       <c r="F200">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G200">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H200">
-        <v>0.04918032786885246</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -42955,13 +42955,13 @@
         <v>11.38333333333333</v>
       </c>
       <c r="F201">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G201">
         <v>69</v>
       </c>
       <c r="H201">
-        <v>0.08695652173913043</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -42981,13 +42981,13 @@
         <v>11.26666666666667</v>
       </c>
       <c r="F202">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G202">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H202">
-        <v>0.05063291139240506</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -43007,13 +43007,13 @@
         <v>11.25</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G203">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H203">
-        <v>0.1060606060606061</v>
+        <v>0.1940298507462687</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -43033,13 +43033,13 @@
         <v>11.38333333333333</v>
       </c>
       <c r="F204">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G204">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H204">
-        <v>0.06944444444444445</v>
+        <v>0.1917808219178082</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -43059,13 +43059,13 @@
         <v>11.36666666666667</v>
       </c>
       <c r="F205">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G205">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H205">
-        <v>0.1304347826086956</v>
+        <v>0.2842105263157895</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -43085,13 +43085,13 @@
         <v>11.26666666666667</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G206">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H206">
-        <v>0.01724137931034483</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -43111,13 +43111,13 @@
         <v>11.65</v>
       </c>
       <c r="F207">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G207">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H207">
-        <v>0.05633802816901409</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -43137,13 +43137,13 @@
         <v>10.81666666666667</v>
       </c>
       <c r="F208">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G208">
         <v>78</v>
       </c>
       <c r="H208">
-        <v>0.05128205128205128</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -43163,13 +43163,13 @@
         <v>7.383333333333334</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G209">
         <v>70</v>
       </c>
       <c r="H209">
-        <v>0.07142857142857142</v>
+        <v>0.1571428571428571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -43189,13 +43189,13 @@
         <v>8.866666666666667</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G210">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H210">
-        <v>0.02</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -43215,13 +43215,13 @@
         <v>11.73333333333333</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G211">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H211">
-        <v>0.06015037593984962</v>
+        <v>0.1197183098591549</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -43241,13 +43241,13 @@
         <v>5.783333333333333</v>
       </c>
       <c r="F212">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G212">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H212">
-        <v>0.1097560975609756</v>
+        <v>0.2289156626506024</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -43267,13 +43267,13 @@
         <v>3.666666666666667</v>
       </c>
       <c r="F213">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G213">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H213">
-        <v>0.09230769230769231</v>
+        <v>0.1617647058823529</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -43293,13 +43293,13 @@
         <v>10.5</v>
       </c>
       <c r="F214">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G214">
         <v>115</v>
       </c>
       <c r="H214">
-        <v>0.06086956521739131</v>
+        <v>0.1826086956521739</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -43319,13 +43319,13 @@
         <v>9.366666666666667</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G215">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H215">
-        <v>0.02150537634408602</v>
+        <v>0.1382978723404255</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -43345,13 +43345,13 @@
         <v>8.466666666666667</v>
       </c>
       <c r="F216">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G216">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H216">
-        <v>0.1075268817204301</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -43371,13 +43371,13 @@
         <v>10.81666666666667</v>
       </c>
       <c r="F217">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G217">
         <v>62</v>
       </c>
       <c r="H217">
-        <v>0.08064516129032258</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -43397,13 +43397,13 @@
         <v>11.26666666666667</v>
       </c>
       <c r="F218">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G218">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H218">
-        <v>0.07843137254901961</v>
+        <v>0.2019230769230769</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -43423,13 +43423,13 @@
         <v>8.683333333333334</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G219">
         <v>70</v>
       </c>
       <c r="H219">
-        <v>0.04285714285714286</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -43449,13 +43449,13 @@
         <v>8.966666666666667</v>
       </c>
       <c r="F220">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G220">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H220">
-        <v>0.08955223880597014</v>
+        <v>0.2116788321167883</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -43475,13 +43475,13 @@
         <v>10.16666666666667</v>
       </c>
       <c r="F221">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G221">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H221">
-        <v>0.08849557522123894</v>
+        <v>0.2521739130434782</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -43501,13 +43501,13 @@
         <v>10.16666666666667</v>
       </c>
       <c r="F222">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G222">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H222">
-        <v>0.05454545454545454</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -43527,13 +43527,13 @@
         <v>11.15</v>
       </c>
       <c r="F223">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G223">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H223">
-        <v>0.06015037593984962</v>
+        <v>0.1925925925925926</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -43553,13 +43553,13 @@
         <v>10.05</v>
       </c>
       <c r="F224">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G224">
         <v>111</v>
       </c>
       <c r="H224">
-        <v>0.04504504504504504</v>
+        <v>0.2252252252252252</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -43579,13 +43579,13 @@
         <v>10.21666666666667</v>
       </c>
       <c r="F225">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G225">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H225">
-        <v>0.07236842105263158</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -43605,13 +43605,13 @@
         <v>10.11666666666667</v>
       </c>
       <c r="F226">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G226">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H226">
-        <v>0.05161290322580645</v>
+        <v>0.1987577639751553</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -43631,13 +43631,13 @@
         <v>10.18333333333333</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G227">
         <v>118</v>
       </c>
       <c r="H227">
-        <v>0.008474576271186441</v>
+        <v>0.1779661016949153</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -43657,13 +43657,13 @@
         <v>9.950000000000001</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G228">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H228">
-        <v>0.09433962264150944</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -43683,13 +43683,13 @@
         <v>11.08333333333333</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G229">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H229">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -43709,13 +43709,13 @@
         <v>11.15</v>
       </c>
       <c r="F230">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G230">
         <v>81</v>
       </c>
       <c r="H230">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -43735,13 +43735,13 @@
         <v>11.23333333333333</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G231">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H231">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -43761,13 +43761,13 @@
         <v>10.95</v>
       </c>
       <c r="F232">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G232">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H232">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -43787,13 +43787,13 @@
         <v>11.11666666666667</v>
       </c>
       <c r="F233">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G233">
         <v>78</v>
       </c>
       <c r="H233">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -43813,13 +43813,13 @@
         <v>11.08333333333333</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G234">
         <v>61</v>
       </c>
       <c r="H234">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -43839,13 +43839,13 @@
         <v>11.15</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G235">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H235">
-        <v>0.05263157894736842</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -43865,13 +43865,13 @@
         <v>11.15</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G236">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H236">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -43891,13 +43891,13 @@
         <v>11.31666666666667</v>
       </c>
       <c r="F237">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G237">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H237">
-        <v>0.1</v>
+        <v>0.2026143790849673</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -43917,13 +43917,13 @@
         <v>11.21666666666667</v>
       </c>
       <c r="F238">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G238">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H238">
-        <v>0.08035714285714286</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -43943,13 +43943,13 @@
         <v>11.3</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G239">
         <v>68</v>
       </c>
       <c r="H239">
-        <v>0.04411764705882353</v>
+        <v>0.2205882352941176</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -43969,13 +43969,13 @@
         <v>11.25</v>
       </c>
       <c r="F240">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G240">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H240">
-        <v>0.0625</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -43995,13 +43995,13 @@
         <v>11.28333333333333</v>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G241">
         <v>70</v>
       </c>
       <c r="H241">
-        <v>0.04285714285714286</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -44021,13 +44021,13 @@
         <v>11.25</v>
       </c>
       <c r="F242">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G242">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H242">
-        <v>0.05263157894736842</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -44047,13 +44047,13 @@
         <v>11.28333333333333</v>
       </c>
       <c r="F243">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G243">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H243">
-        <v>0.05263157894736842</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -44073,13 +44073,13 @@
         <v>11.18333333333333</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G244">
         <v>74</v>
       </c>
       <c r="H244">
-        <v>0.01351351351351351</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -44099,13 +44099,13 @@
         <v>11.2</v>
       </c>
       <c r="F245">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G245">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H245">
-        <v>0.07792207792207792</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -44125,13 +44125,13 @@
         <v>11.25</v>
       </c>
       <c r="F246">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G246">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H246">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -44151,13 +44151,13 @@
         <v>11.2</v>
       </c>
       <c r="F247">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G247">
         <v>81</v>
       </c>
       <c r="H247">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -44177,13 +44177,13 @@
         <v>10.98333333333333</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G248">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H248">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -44203,13 +44203,13 @@
         <v>11.25</v>
       </c>
       <c r="F249">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G249">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H249">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -44229,13 +44229,13 @@
         <v>11.16666666666667</v>
       </c>
       <c r="F250">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G250">
         <v>78</v>
       </c>
       <c r="H250">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -44255,13 +44255,13 @@
         <v>11.28333333333333</v>
       </c>
       <c r="F251">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G251">
         <v>61</v>
       </c>
       <c r="H251">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -44281,13 +44281,13 @@
         <v>11.21666666666667</v>
       </c>
       <c r="F252">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G252">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H252">
-        <v>0.09782608695652174</v>
+        <v>0.2842105263157895</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -44307,13 +44307,13 @@
         <v>11.55</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G253">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H253">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -44749,13 +44749,13 @@
         <v>12.91666666666667</v>
       </c>
       <c r="F270">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G270">
         <v>66</v>
       </c>
       <c r="H270">
-        <v>0.04545454545454546</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -45061,13 +45061,13 @@
         <v>9.116666666666667</v>
       </c>
       <c r="F282">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G282">
         <v>77</v>
       </c>
       <c r="H282">
-        <v>0.03896103896103896</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -45087,13 +45087,13 @@
         <v>7.583333333333333</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G283">
         <v>38</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -45113,13 +45113,13 @@
         <v>10.05</v>
       </c>
       <c r="F284">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G284">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H284">
-        <v>0.2077922077922078</v>
+        <v>0.3164556962025317</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -45139,13 +45139,13 @@
         <v>6.516666666666667</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G285">
         <v>18</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -45165,13 +45165,13 @@
         <v>6.533333333333333</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G286">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -45191,13 +45191,13 @@
         <v>7.766666666666667</v>
       </c>
       <c r="F287">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G287">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H287">
-        <v>0.0625</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -45217,13 +45217,13 @@
         <v>5.633333333333334</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G288">
         <v>20</v>
       </c>
       <c r="H288">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -45243,13 +45243,13 @@
         <v>11.06666666666667</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G289">
         <v>49</v>
       </c>
       <c r="H289">
-        <v>0.04081632653061224</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -45269,13 +45269,13 @@
         <v>11.06666666666667</v>
       </c>
       <c r="F290">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G290">
         <v>70</v>
       </c>
       <c r="H290">
-        <v>0.08571428571428572</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -45295,13 +45295,13 @@
         <v>9.85</v>
       </c>
       <c r="F291">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G291">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H291">
-        <v>0.03703703703703703</v>
+        <v>0.1566265060240964</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -45321,13 +45321,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G292">
         <v>74</v>
       </c>
       <c r="H292">
-        <v>0.01351351351351351</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -45347,13 +45347,13 @@
         <v>8.716666666666667</v>
       </c>
       <c r="F293">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G293">
         <v>67</v>
       </c>
       <c r="H293">
-        <v>0.04477611940298507</v>
+        <v>0.1194029850746269</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -45373,13 +45373,13 @@
         <v>5.45</v>
       </c>
       <c r="F294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G294">
         <v>17</v>
       </c>
       <c r="H294">
-        <v>0.05882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -45399,13 +45399,13 @@
         <v>10.1</v>
       </c>
       <c r="F295">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G295">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H295">
-        <v>0.09183673469387756</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -45425,13 +45425,13 @@
         <v>9.683333333333334</v>
       </c>
       <c r="F296">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G296">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H296">
-        <v>0.03061224489795918</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -45451,13 +45451,13 @@
         <v>10.58333333333333</v>
       </c>
       <c r="F297">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G297">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H297">
-        <v>0.1176470588235294</v>
+        <v>0.2358490566037736</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -45477,13 +45477,13 @@
         <v>10.28333333333333</v>
       </c>
       <c r="F298">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G298">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H298">
-        <v>0.1047619047619048</v>
+        <v>0.2264150943396226</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -45503,13 +45503,13 @@
         <v>11.11666666666667</v>
       </c>
       <c r="F299">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G299">
         <v>56</v>
       </c>
       <c r="H299">
-        <v>0.08928571428571429</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -45529,13 +45529,13 @@
         <v>10.28333333333333</v>
       </c>
       <c r="F300">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G300">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H300">
-        <v>0.06201550387596899</v>
+        <v>0.1313868613138686</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -45555,13 +45555,13 @@
         <v>10.46666666666667</v>
       </c>
       <c r="F301">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G301">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H301">
-        <v>0.0891089108910891</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -45581,13 +45581,13 @@
         <v>10.63333333333333</v>
       </c>
       <c r="F302">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G302">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H302">
-        <v>0.1022727272727273</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -45607,13 +45607,13 @@
         <v>10.41666666666667</v>
       </c>
       <c r="F303">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G303">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H303">
-        <v>0.06802721088435375</v>
+        <v>0.1589403973509934</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -45633,13 +45633,13 @@
         <v>10.21666666666667</v>
       </c>
       <c r="F304">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G304">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H304">
-        <v>0.09803921568627451</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -45659,13 +45659,13 @@
         <v>8.15</v>
       </c>
       <c r="F305">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G305">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H305">
-        <v>0.05185185185185185</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -45685,13 +45685,13 @@
         <v>7.05</v>
       </c>
       <c r="F306">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G306">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H306">
-        <v>0.07746478873239436</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -45711,13 +45711,13 @@
         <v>10.3</v>
       </c>
       <c r="F307">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G307">
         <v>117</v>
       </c>
       <c r="H307">
-        <v>0.1025641025641026</v>
+        <v>0.188034188034188</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -46150,7 +46150,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>0.05463088830653993</v>
+        <v>0.1702198481038164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -46318,7 +46318,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>0.06634465797680464</v>
+        <v>0.1624591254011203</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -46346,7 +46346,7 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>0.06732250691726135</v>
+        <v>0.1925836149485946</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -46360,7 +46360,7 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>0.06562294743588822</v>
+        <v>0.1703504191601639</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -46374,7 +46374,7 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>0.05968443126571794</v>
+        <v>0.2040987062951744</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -46388,7 +46388,7 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>0.06010448875771199</v>
+        <v>0.2031950192054191</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -46416,7 +46416,7 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>0.03721629916145898</v>
+        <v>0.04912106106622089</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -46430,7 +46430,7 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>0.04922569679718807</v>
+        <v>0.1812463007951433</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -46444,7 +46444,7 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>0.08349907455551905</v>
+        <v>0.189849771724371</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -46701,46 +46701,46 @@
         <v>81</v>
       </c>
       <c r="G4">
-        <v>0.01886792452830189</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="H4">
-        <v>0.04545454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I4">
-        <v>0.1733333333333333</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="P4">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="V4">
-        <v>0.09090909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="W4">
-        <v>0.1060606060606061</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AB4">
-        <v>0.06896551724137931</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AC4">
-        <v>0.1052631578947368</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AE4">
-        <v>0.04347826086956522</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="AI4">
         <v>14</v>
@@ -47317,25 +47317,25 @@
         <v>81</v>
       </c>
       <c r="V18">
-        <v>0.125</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="W18">
-        <v>0.09917355371900827</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="X18">
-        <v>0.03846153846153846</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="AB18">
-        <v>0.02127659574468085</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="AC18">
-        <v>0.08333333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="AD18">
-        <v>0.04838709677419355</v>
+        <v>0.168</v>
       </c>
       <c r="AE18">
-        <v>0.04878048780487805</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="AI18">
         <v>7</v>
@@ -47439,52 +47439,52 @@
         <v>81</v>
       </c>
       <c r="D22">
-        <v>0.0975609756097561</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="E22">
-        <v>0.08823529411764706</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="F22">
-        <v>0.07352941176470588</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="K22">
-        <v>0.06756756756756757</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="L22">
-        <v>0.01492537313432836</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="M22">
-        <v>0.09090909090909091</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="N22">
-        <v>0.05882352941176471</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R22">
-        <v>0.0131578947368421</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="S22">
-        <v>0.0625</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="T22">
-        <v>0.04918032786885246</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="U22">
-        <v>0.08695652173913043</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="Y22">
-        <v>0.05063291139240506</v>
+        <v>0.225</v>
       </c>
       <c r="Z22">
-        <v>0.1060606060606061</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="AA22">
-        <v>0.06944444444444445</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="AG22">
-        <v>0.1304347826086956</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="AH22">
-        <v>0.01724137931034483</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="AI22">
         <v>16</v>
@@ -47501,43 +47501,43 @@
         <v>81</v>
       </c>
       <c r="G23">
-        <v>0.05633802816901409</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H23">
-        <v>0.05128205128205128</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J23">
-        <v>0.07142857142857142</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="O23">
-        <v>0.02</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="P23">
-        <v>0.06015037593984962</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="Q23">
-        <v>0.1097560975609756</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="V23">
-        <v>0.09230769230769231</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="W23">
-        <v>0.06086956521739131</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="X23">
-        <v>0.02150537634408602</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="AB23">
-        <v>0.1075268817204301</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AC23">
-        <v>0.08064516129032258</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="AD23">
-        <v>0.07843137254901961</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="AE23">
-        <v>0.04285714285714286</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="AI23">
         <v>13</v>
@@ -47554,55 +47554,55 @@
         <v>81</v>
       </c>
       <c r="D24">
-        <v>0.08955223880597014</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="E24">
-        <v>0.08849557522123894</v>
+        <v>0.2521739130434782</v>
       </c>
       <c r="F24">
-        <v>0.05454545454545454</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K24">
-        <v>0.06015037593984962</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="L24">
-        <v>0.04504504504504504</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="M24">
-        <v>0.07236842105263158</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="N24">
-        <v>0.05161290322580645</v>
+        <v>0.1987577639751553</v>
       </c>
       <c r="R24">
-        <v>0.008474576271186441</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="S24">
-        <v>0.09433962264150944</v>
+        <v>0.2</v>
       </c>
       <c r="T24">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="U24">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="Y24">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
       <c r="Z24">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
       <c r="AA24">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="AF24">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="AG24">
-        <v>0.05263157894736842</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="AH24">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="AI24">
         <v>17</v>
@@ -47619,55 +47619,55 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="E25">
-        <v>0.08035714285714286</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="F25">
-        <v>0.04411764705882353</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="K25">
-        <v>0.0625</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="L25">
-        <v>0.04285714285714286</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="M25">
-        <v>0.05263157894736842</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="N25">
-        <v>0.05263157894736842</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R25">
-        <v>0.01351351351351351</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="S25">
-        <v>0.07792207792207792</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="T25">
-        <v>0.04285714285714286</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="U25">
-        <v>0.06172839506172839</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="Y25">
-        <v>0.02531645569620253</v>
+        <v>0.2125</v>
       </c>
       <c r="Z25">
-        <v>0.1111111111111111</v>
+        <v>0.21875</v>
       </c>
       <c r="AA25">
-        <v>0.07692307692307693</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="AF25">
-        <v>0.04918032786885246</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="AG25">
-        <v>0.09782608695652174</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="AH25">
-        <v>0.0303030303030303</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="AI25">
         <v>17</v>
@@ -47740,7 +47740,7 @@
         <v>81</v>
       </c>
       <c r="F27">
-        <v>0.04545454545454546</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="AI27">
         <v>1</v>
@@ -47810,43 +47810,43 @@
         <v>81</v>
       </c>
       <c r="G29">
-        <v>0.03896103896103896</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I29">
-        <v>0.2077922077922078</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="P29">
-        <v>0.0625</v>
+        <v>0.18</v>
       </c>
       <c r="Q29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="V29">
-        <v>0.04081632653061224</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="W29">
-        <v>0.08571428571428572</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="X29">
-        <v>0.03703703703703703</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="AB29">
-        <v>0.01351351351351351</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="AC29">
-        <v>0.04477611940298507</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="AE29">
-        <v>0.05882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AI29">
         <v>13</v>
@@ -47863,43 +47863,43 @@
         <v>81</v>
       </c>
       <c r="G30">
-        <v>0.09183673469387756</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="H30">
-        <v>0.03061224489795918</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I30">
-        <v>0.1176470588235294</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="J30">
-        <v>0.1047619047619048</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="O30">
-        <v>0.08928571428571429</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="P30">
-        <v>0.06201550387596899</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="Q30">
-        <v>0.0891089108910891</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="V30">
-        <v>0.1022727272727273</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="X30">
-        <v>0.06802721088435375</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="AB30">
-        <v>0.09803921568627451</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AC30">
-        <v>0.05185185185185185</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AD30">
-        <v>0.07746478873239436</v>
+        <v>0.2</v>
       </c>
       <c r="AE30">
-        <v>0.1025641025641026</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="AI30">
         <v>13</v>
